--- a/68-Break Shields 破盾.xlsx
+++ b/68-Break Shields 破盾.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
     <sheet name="插件参数" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>Break Shields are a new battle mechanic introduced through this plugin.</t>
   </si>
@@ -145,6 +158,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>改变</t>
     </r>
     <r>
@@ -186,6 +206,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">目标战斗者的破盾值 增加/减少 x
 </t>
     </r>
@@ -345,6 +372,28 @@
     <t>13</t>
   </si>
   <si>
+    <t>JS: On Break Stun:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当一个战斗者失去所有护盾值时，运行此代码。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user = 攻击者; target = 破盾眩晕目标</t>
+    </r>
+  </si>
+  <si>
+    <t>（JS略）</t>
+  </si>
+  <si>
     <t>Animation</t>
   </si>
   <si>
@@ -453,6 +502,27 @@
   </si>
   <si>
     <t>显示破盾眩晕还有多少回合？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Stun Text Color:</t>
+  </si>
+  <si>
+    <r>
+      <t>眩晕文字颜色。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>窗口皮肤的颜色号，以及#rrggbb都支持</t>
+    </r>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>Protect Icon:</t>
@@ -584,14 +654,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +686,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -803,7 +880,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,55 +1218,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,74 +1278,77 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,13 +1376,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,6 +1453,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="3571875"/>
+          <a:ext cx="2752725" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1652,7 +1791,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1808,7 +1947,7 @@
       </c>
     </row>
     <row r="12" ht="37.5" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1846,7 +1985,7 @@
       </c>
     </row>
     <row r="17" ht="49.5" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1862,7 +2001,7 @@
       </c>
     </row>
     <row r="20" ht="97.5" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1897,10 +2036,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1983,25 +2122,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+    <row r="8" ht="25.5" spans="1:3">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="25.5" spans="1:3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2011,66 +2150,63 @@
       <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8">
+    </row>
+    <row r="11" ht="25.5" spans="1:4">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" ht="27" spans="1:3">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" ht="27" spans="1:3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="18.75" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="16" ht="18.75" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="8">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2079,6 +2215,9 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="D18" s="8">
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2089,115 +2228,137 @@
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" ht="25.5" spans="1:4">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="8">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" spans="1:4">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="10"/>
-    </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>80</v>
+      <c r="A26" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" ht="25.5" spans="1:3">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="25.5" spans="1:3">
       <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2205,6 +2366,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
